--- a/PublicHealthUnitsGroup.xlsx
+++ b/PublicHealthUnitsGroup.xlsx
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="3">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Durham Region</t>
+          <t>Whitby</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -527,10 +527,10 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="5">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="6">
@@ -573,10 +573,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +587,19 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fergus</t>
+          <t>Guelph</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wellington-Dufferin-Guelph Health Unit</t>
+          <t>Wellington-Dufferin-Guelph Public Health</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="8">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="9">
@@ -642,10 +642,10 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="10">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="11">
@@ -688,10 +688,10 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="12">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="13">
@@ -730,14 +730,14 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lambton Health Unit</t>
+          <t>Lambton Public Health</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="14">
@@ -757,10 +757,10 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="15">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="16">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="17">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="18">
@@ -849,10 +849,10 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="19">
@@ -872,10 +872,10 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="20">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="22">
@@ -941,10 +941,10 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="23">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="24">
@@ -987,10 +987,10 @@
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="25">
@@ -1006,14 +1006,14 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sudbury and District Health Unit</t>
+          <t>Sudbury &amp; District Health Unit</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="26">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="27">
@@ -1056,10 +1056,10 @@
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="28">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="29">
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="30">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="31">
@@ -1144,14 +1144,14 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kingston, Frontenac and Lennox &amp; Addington Health Unit</t>
+          <t>Kingston, Frontenac and Lennox &amp; Addington Public Health</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="32">
@@ -1167,14 +1167,14 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Huron Perth Health Unit</t>
+          <t>Huron Perth District Health Unit</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="33">
@@ -1194,10 +1194,10 @@
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="34">
@@ -1217,10 +1217,10 @@
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
     <row r="35">
@@ -1240,10 +1240,10 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44888.48092649563</v>
+        <v>44888.48092649306</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44888.48092650686</v>
+        <v>44888.48092650463</v>
       </c>
     </row>
   </sheetData>

--- a/PublicHealthUnitsGroup.xlsx
+++ b/PublicHealthUnitsGroup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,6 +463,11 @@
           <t>UpdatedDate</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="E2" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,6 +517,9 @@
       <c r="E3" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -532,6 +543,9 @@
       <c r="E4" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -555,6 +569,9 @@
       <c r="E5" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -578,6 +595,9 @@
       <c r="E6" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -601,6 +621,9 @@
       <c r="E7" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -624,6 +647,9 @@
       <c r="E8" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -647,6 +673,9 @@
       <c r="E9" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -670,6 +699,9 @@
       <c r="E10" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -693,6 +725,9 @@
       <c r="E11" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -716,6 +751,9 @@
       <c r="E12" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -739,6 +777,9 @@
       <c r="E13" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -762,6 +803,9 @@
       <c r="E14" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -785,6 +829,9 @@
       <c r="E15" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -808,6 +855,9 @@
       <c r="E16" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -831,6 +881,9 @@
       <c r="E17" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -854,6 +907,9 @@
       <c r="E18" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -877,6 +933,9 @@
       <c r="E19" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -900,6 +959,9 @@
       <c r="E20" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F20" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -923,6 +985,9 @@
       <c r="E21" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -946,6 +1011,9 @@
       <c r="E22" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -969,6 +1037,9 @@
       <c r="E23" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -992,6 +1063,9 @@
       <c r="E24" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1015,6 +1089,9 @@
       <c r="E25" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1038,6 +1115,9 @@
       <c r="E26" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1061,6 +1141,9 @@
       <c r="E27" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1084,6 +1167,9 @@
       <c r="E28" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1107,6 +1193,9 @@
       <c r="E29" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1130,6 +1219,9 @@
       <c r="E30" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1153,6 +1245,9 @@
       <c r="E31" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1176,6 +1271,9 @@
       <c r="E32" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1199,6 +1297,9 @@
       <c r="E33" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1222,6 +1323,9 @@
       <c r="E34" s="2" t="n">
         <v>44888.48092650463</v>
       </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1244,6 +1348,9 @@
       </c>
       <c r="E35" s="2" t="n">
         <v>44888.48092650463</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
